--- a/notas_ADE.xlsx
+++ b/notas_ADE.xlsx
@@ -76,47 +76,47 @@
     <t>Y6030901</t>
   </si>
   <si>
-    <t>48627180_EXTJ.md</t>
-  </si>
-  <si>
-    <t>77042027_ZTGJ.md</t>
-  </si>
-  <si>
-    <t>HU9261403_MXHI.md</t>
-  </si>
-  <si>
-    <t>48629024_MBIJ.md</t>
-  </si>
-  <si>
-    <t>Y8260439_IGEM.md</t>
-  </si>
-  <si>
-    <t>48777431_XPYA.md</t>
-  </si>
-  <si>
-    <t>20527276_OIDC.md</t>
-  </si>
-  <si>
-    <t>15423728_SLXX.md</t>
-  </si>
-  <si>
-    <t>53979210_KUUL.md</t>
-  </si>
-  <si>
-    <t>Y6030901_PFPG.md</t>
-  </si>
-  <si>
-    <t>74445483_UAUP.md</t>
-  </si>
-  <si>
-    <t>752243357_AGUZ.md</t>
+    <t>https://albarran.github.io/Evaluacion/48627180_EXTJ.html</t>
+  </si>
+  <si>
+    <t>https://albarran.github.io/Evaluacion/77042027_ZTGJ.html</t>
+  </si>
+  <si>
+    <t>https://albarran.github.io/Evaluacion/HU9261403_MXHI.html</t>
+  </si>
+  <si>
+    <t>https://albarran.github.io/Evaluacion/48629024_MBIJ.html</t>
+  </si>
+  <si>
+    <t>https://albarran.github.io/Evaluacion/Y8260439_IGEM.html</t>
+  </si>
+  <si>
+    <t>https://albarran.github.io/Evaluacion/48777431_XPYA.html</t>
+  </si>
+  <si>
+    <t>https://albarran.github.io/Evaluacion/20527276_OIDC.html</t>
+  </si>
+  <si>
+    <t>https://albarran.github.io/Evaluacion/15423728_SLXX.html</t>
+  </si>
+  <si>
+    <t>https://albarran.github.io/Evaluacion/53979210_KUUL.html</t>
+  </si>
+  <si>
+    <t>https://albarran.github.io/Evaluacion/Y6030901_PFPG.html</t>
+  </si>
+  <si>
+    <t>https://albarran.github.io/Evaluacion/74445483_UAUP.html</t>
+  </si>
+  <si>
+    <t>https://albarran.github.io/Evaluacion/752243357_AGUZ.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +131,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -165,16 +172,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -500,7 +513,7 @@
       <c r="C2">
         <v>4.9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -514,7 +527,7 @@
       <c r="C3">
         <v>3.9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -525,7 +538,7 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -539,7 +552,7 @@
       <c r="C5">
         <v>4.7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -553,7 +566,7 @@
       <c r="C6">
         <v>4.3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -567,7 +580,7 @@
       <c r="C7">
         <v>4.9</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -581,7 +594,7 @@
       <c r="C8">
         <v>4.4</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -592,7 +605,7 @@
       <c r="B9">
         <v>15423728</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -606,7 +619,7 @@
       <c r="C10">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -620,7 +633,7 @@
       <c r="C11">
         <v>4.9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -634,7 +647,7 @@
       <c r="C12">
         <v>4.5</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -645,11 +658,25 @@
       <c r="B13">
         <v>752243357</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/notas_ADE.xlsx
+++ b/notas_ADE.xlsx
@@ -469,12 +469,10 @@
       <c r="B2" t="n">
         <v>48627180</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="C2" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>https://albarran.github.io/Evaluacion/48627180_EXTJ.html</t>
@@ -490,12 +488,10 @@
       <c r="B3" t="n">
         <v>77042027</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="C3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>https://albarran.github.io/Evaluacion/77042027_ZTGJ.html</t>
@@ -534,12 +530,10 @@
       <c r="B5" t="n">
         <v>48629024</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="C5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>https://albarran.github.io/Evaluacion/48629024_MBIJ.html</t>
@@ -557,12 +551,10 @@
           <t>Y8260439</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>https://albarran.github.io/Evaluacion/Y8260439_IGEM.html</t>
@@ -578,12 +570,10 @@
       <c r="B7" t="n">
         <v>48777431</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>https://albarran.github.io/Evaluacion/48777431_XPYA.html</t>
@@ -599,12 +589,10 @@
       <c r="B8" t="n">
         <v>20527276</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>https://albarran.github.io/Evaluacion/20527276_OIDC.html</t>
@@ -641,12 +629,10 @@
       <c r="B10" t="n">
         <v>53979210</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="C10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>https://albarran.github.io/Evaluacion/53979210_KUUL.html</t>
@@ -664,12 +650,10 @@
           <t>Y6030901</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="C11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>https://albarran.github.io/Evaluacion/Y6030901_PFPG.html</t>
@@ -685,12 +669,10 @@
       <c r="B12" t="n">
         <v>74445483</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="C12" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>https://albarran.github.io/Evaluacion/74445483_UAUP.html</t>
